--- a/com.bizvisionsoft.pms/问题清单.xlsx
+++ b/com.bizvisionsoft.pms/问题清单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sg\git\pms\com.bizvisionsoft.pms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB1E49C-E321-4BFF-9515-BFD43F0874BF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969E1448-20A1-4C4B-9C94-2137E221E31A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
   </bookViews>
@@ -25,283 +25,433 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
-  <si>
-    <t>创建项目选择模板时，不显示未启动的项目模板。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
+  <si>
+    <t>编制期间预算后，未在预算表中进行显示，只显示了合计，并且总值合计有误。</t>
+  </si>
+  <si>
+    <t>项目风险量化评估，未按照项目进行过滤</t>
+  </si>
+  <si>
+    <t>项目风险应对计划，未按照项目进行过滤</t>
+  </si>
+  <si>
+    <t>项目团队组织结构-选择担任者按照组织查询不便，无法查询出该组织的下级组织</t>
+  </si>
+  <si>
+    <t>阶段组织管理权限控制，现任何人都可以修改组织结构</t>
+  </si>
+  <si>
+    <t>阶段资源计划权限控制，现任何人都可以修改资源计划</t>
+  </si>
+  <si>
+    <t>阶段预算权限控制</t>
+  </si>
+  <si>
+    <t>阶段成本权限控制</t>
+  </si>
+  <si>
+    <t>研发进展中，新建和显示日期精确到时分秒。</t>
+  </si>
+  <si>
+    <t>我的待处理工作中是否显示里程碑？</t>
+  </si>
+  <si>
+    <t>修改工作计划，已经完成的工作不应该修改下达状态</t>
+  </si>
+  <si>
+    <t>采购工作包/生产工作包-编辑单位下拉选择</t>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目模板</t>
+  </si>
+  <si>
+    <t>启用后还可以进行编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块/操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不自动生成工作令号。由科技部主管编辑助记码时自动生成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求变更</t>
+  </si>
+  <si>
+    <t>讨论结论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目类型增加其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPS节点包括：敌我识别、雷达探测、数据链通信、电子对抗、光电探测、北斗导航、信息系统、空管、其它。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加：目标值（单选：包括：设计定型、设计鉴定、技术鉴定、结题验收、必填）、成果形式（文本、必填）、重大专项类别（文本、选填）、所属平台/配套系统（文本、选填）、主机厂所（文本、必填）、用户代表（下拉单选、选择数据待提供，必填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：组织形式名称改为立项类型、客户改为主管机关（必填），产品特性（改为军兵种，选择数据，包括：海军、陆军、空军、火箭军、战略资源部队、天军、网军。可选）、目标地域（改名为战区，东部战区、西部战区、南部战区、北部战区、中部战区、可选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技管理部查看项目时，需要增加显示列：助记码、目标值、成果形式、级别、密级、工作令、科技部主管、立项类型、项目类型、专业领域重大、专项类别、所属平台/配套系统、主管机关、主机厂所、用户代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收尾状态项目</t>
+  </si>
+  <si>
+    <t>项目基线-显示不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目变更-显示不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源用量不允许进行编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目风险登记簿中，后果显示有误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目风险量化评估，无法显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险应对计划不允许进行编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目监控-工作包禁止进行新建和修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目基线-无法显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目资料库-禁止进行新建和修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭状态项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加查看我的已关闭项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加表格形式显示所有项目，权限授予项目总监和项目管理员，表格名字：所有项目，创建时间倒序，基本字段参照我的项目，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建项目选择模板时，不显示未启用的项目模板。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织增加字段：项目承担单位（projectBuilder）。项目选择承担单位时，只能选择其为true的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>从模板套用，未导入资源计划。</t>
-  </si>
-  <si>
-    <t>编制期间预算后，未在预算表中进行显示，只显示了合计，并且总值合计有误。</t>
-  </si>
-  <si>
-    <t>项目风险量化评估，未按照项目进行过滤</t>
-  </si>
-  <si>
-    <t>项目风险应对计划，未按照项目进行过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一个月的项目，预算显示月份有误，没有完整的年份没有合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目团队分配工作无法分配到工作上-从项目模板导入项目信息，进度计划中的角色，点击保存后被清除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkInfo中加载角色Id字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目干系人编辑无法保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>从项目模板导入项目信息，进度计划中的里程碑设置会因为保存消失。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板中增加添加里程碑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>从项目模板复制的工作，计划开始时间没有按照项目的计划开始时间进行更新。从而造成工作计划开始时间可以早于项目计划开始时间。</t>
-  </si>
-  <si>
-    <t>项目启动检查，提示（详见ProjectServiceImpl。startProjectCheck）。</t>
-  </si>
-  <si>
-    <t>项目团队组织结构-选择担任者为全公司选人，待讨论。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectTemplateServiceImpl.useTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目启动检查，提示（详见ProjectServiceImpl.startProjectCheck）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目团队组织结构-选择担任者为全公司选人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目团队组织结构-选择担任者对话框太小。查询条件出现滚动条。</t>
-  </si>
-  <si>
-    <t>项目团队组织结构-选择担任者按照组织查询不便，无法查询出该组织的下级组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目创建后，项目档案库没有默认文件夹（项目同名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目模板中要增加项目档案库文件夹结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不是所有项目团队成员都可以在项目资源用量中创建资源用量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目收尾检查，无法进入收尾时，无提示信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模板导入，没有阶段负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目变更申请单位未显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>变更申请同一消息接收者中有重复的，未去除重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>待审批的项目变更中，显示项目名称。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我负责的阶段第一列显示项目名称、第二列列头名称应当为 “阶段”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>启动阶段权限控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阶段中未维护阶段计划经理，阶段负责人无法编辑进度计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阶段无法下达阶段工作</t>
-  </si>
-  <si>
-    <t>阶段组织管理权限控制，现任何人都可以修改组织结构</t>
-  </si>
-  <si>
-    <t>阶段资源计划权限控制，现任何人都可以修改资源计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阶段资源用量无法显示</t>
-  </si>
-  <si>
-    <t>阶段预算权限控制</t>
-  </si>
-  <si>
-    <t>阶段成本权限控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阶段-进度管理-进度计划用途？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为项目进度计划和监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阶段-进度计划甘特图，完成根节点编辑后，会消失。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段负责人角色编号WM、阶段计划经理PhPM、阶段财务经理PhFM、进入阶段要用程序集中判断当前角色（PM、PPM、PFM、WM、PhPM、PgPM）能否进入阶段。阶段只是编辑计划，其它内容都是在项目中进行查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于OBS处理根节点的方式，暂时阶段的一级工作不允许进行编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我的待处理工作中应禁止编辑工作包</t>
-  </si>
-  <si>
-    <t>研发进展中，新建和显示日期精确到时分秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止编辑资源用量</t>
+  </si>
+  <si>
+    <t>禁止编辑资源用量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我的待处理工作下增加我的待指派工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进度估算有误，关键路径上1个工作超期，后序工作提前，进度估算三级预警。</t>
-  </si>
-  <si>
-    <t>我的待处理工作中是否显示里程碑？</t>
-  </si>
-  <si>
-    <t>修改工作计划，已经完成的工作不应该修改下达状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度计划和监控中WBS排序不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示里程碑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进入创建状态的阶段-点击启动阶段-进入到执行状态的阶段-点击退回-又退回到创建阶段状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用su进行操作时，发送的通知会造成首页无法进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无法看到当前登录人员姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽SU的其它操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我的待处理工作中未显示作为指派者存在的工作。原因：阶段无法下达计划。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未向指派者发送消息通知。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我的待处理工作中，指派操作未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我的待处理工作中，资源用量未完成</t>
-  </si>
-  <si>
-    <t>采购工作包/生产工作包-编辑单位下拉选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自制件、外购件齐套工作包跟踪重新添加跟踪物料？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阶段-关闭状态，进度管理-进度计划错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成本管理-填写项目成本期间有误：1.关联阶段的CBS节点，阶段关闭后还可以录入费用，2.显示的时间不对。3.已经提交的还可以进行编辑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目报告加载Item时，未读取当前工作的预计完成时间。</t>
-  </si>
-  <si>
-    <t>完成的工作未填写预计完成时间，报告确认时不更新工作的预计完成时间。</t>
-  </si>
-  <si>
-    <t>我负责的阶段中，已关闭的阶段显示？</t>
-  </si>
-  <si>
-    <t>跨页面刷新</t>
-  </si>
-  <si>
-    <t>问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目模板</t>
-  </si>
-  <si>
-    <t>启用后还可以进行编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块/操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不自动生成工作令号。由科技部主管编辑助记码时自动生成。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求变更</t>
-  </si>
-  <si>
-    <t>讨论结论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目类型增加其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPS节点包括：敌我识别、雷达探测、数据链通信、电子对抗、光电探测、北斗导航、信息系统、空管、其它。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加：目标值（单选：包括：设计定型、设计鉴定、技术鉴定、结题验收、必填）、成果形式（文本、必填）、重大专项类别（文本、选填）、所属平台/配套系统（文本、选填）、主机厂所（文本、必填）、用户代表（下拉单选、选择数据待提供，必填）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改：组织形式名称改为立项类型、客户改为主管机关（必填），产品特性（改为军兵种，选择数据，包括：海军、陆军、空军、火箭军、战略资源部队、天军、网军。可选）、目标地域（改名为战区，东部战区、西部战区、南部战区、北部战区、中部战区、可选）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技管理部查看项目时，需要增加显示列：助记码、目标值、成果形式、级别、密级、工作令、科技部主管、立项类型、项目类型、专业领域重大、专项类别、所属平台/配套系统、主管机关、主机厂所、用户代表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加表格形式显示所有项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收尾状态项目</t>
-  </si>
-  <si>
-    <t>项目进度甘特图为显示关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目基线-显示不对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目变更-显示不对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源用量不允许进行编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目风险登记簿中，后果显示有误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目风险量化评估，无法显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险应对计划不允许进行编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目监控-工作包禁止进行新建和修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目基线-无法显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目资料库-禁止进行新建和修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭状态项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加查看我的已关闭项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成的工作不填写预计完成时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我负责的阶段中，已关闭的阶段不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨内容区刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目进度甘特图未显示关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部管理主页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,13 +527,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD94BB01-4479-4B16-BEB0-1EEA83A0444C}" name="表1" displayName="表1" ref="A1:D71" totalsRowShown="0">
-  <autoFilter ref="A1:D71" xr:uid="{585133C4-3030-4533-B9D0-0270D950DFD8}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD94BB01-4479-4B16-BEB0-1EEA83A0444C}" name="表1" displayName="表1" ref="A1:E75" totalsRowShown="0">
+  <autoFilter ref="A1:E75" xr:uid="{585133C4-3030-4533-B9D0-0270D950DFD8}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{13C7731C-0A4A-4A68-A1D0-828F5A772311}" name="序号"/>
     <tableColumn id="2" xr3:uid="{48BB547F-43FB-4086-BBFC-91DEDCDE32E2}" name="模块/操作"/>
     <tableColumn id="3" xr3:uid="{54694046-8F91-40CB-BFA3-F05EAE8547F1}" name="问题" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{A3327696-1949-4863-9092-0CA93A8AF52A}" name="讨论结论"/>
+    <tableColumn id="5" xr3:uid="{35EE4844-5954-4D52-96F0-32E575D71CF4}" name="处理日期"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -686,658 +837,768 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0812E71-16E9-4313-82F1-F0AF1DA5A6B5}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="D46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="D50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="D51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="D53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B61" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B62" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="D63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>80</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/com.bizvisionsoft.pms/问题清单.xlsx
+++ b/com.bizvisionsoft.pms/问题清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sg\git\pms\com.bizvisionsoft.pms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969E1448-20A1-4C4B-9C94-2137E221E31A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40DD4F8-5819-45D5-9AA9-687F4481ED6E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
   <si>
     <t>编制期间预算后，未在预算表中进行显示，只显示了合计，并且总值合计有误。</t>
   </si>
@@ -452,6 +452,10 @@
   </si>
   <si>
     <t>项目部管理主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPS管理无法进行修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,12 +502,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,8 +534,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD94BB01-4479-4B16-BEB0-1EEA83A0444C}" name="表1" displayName="表1" ref="A1:E75" totalsRowShown="0">
-  <autoFilter ref="A1:E75" xr:uid="{585133C4-3030-4533-B9D0-0270D950DFD8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD94BB01-4479-4B16-BEB0-1EEA83A0444C}" name="表1" displayName="表1" ref="A1:E76" totalsRowShown="0">
+  <autoFilter ref="A1:E76" xr:uid="{585133C4-3030-4533-B9D0-0270D950DFD8}">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="改为项目进度计划和监控"/>
+        <filter val="阶段负责人角色编号WM、阶段计划经理PhPM、阶段财务经理PhFM、进入阶段要用程序集中判断当前角色（PM、PPM、PFM、WM、PhPM、PgPM）能否进入阶段。阶段只是编辑计划，其它内容都是在项目中进行查看"/>
+        <filter val="阶段权限"/>
+        <filter val="禁止编辑资源用量"/>
+        <filter val="类似于OBS处理根节点的方式，暂时阶段的一级工作不允许进行编辑"/>
+        <filter val="屏蔽SU的其它操作"/>
+        <filter val="项目模板中要增加项目档案库文件夹结构"/>
+        <filter val="需求变更"/>
+        <filter val="在我的待处理工作下增加我的待指派工作。"/>
+        <filter val="增加表格形式显示所有项目，权限授予项目总监和项目管理员，表格名字：所有项目，创建时间倒序，基本字段参照我的项目，"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{13C7731C-0A4A-4A68-A1D0-828F5A772311}" name="序号"/>
     <tableColumn id="2" xr3:uid="{48BB547F-43FB-4086-BBFC-91DEDCDE32E2}" name="模块/操作"/>
@@ -837,11 +862,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0812E71-16E9-4313-82F1-F0AF1DA5A6B5}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -868,7 +893,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -896,7 +921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -909,8 +934,11 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="E4" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -920,8 +948,11 @@
       <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="E5" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -931,8 +962,11 @@
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -960,7 +994,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -970,8 +1004,11 @@
       <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -980,6 +1017,9 @@
       </c>
       <c r="C10" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43285</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -993,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1003,8 +1043,11 @@
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1014,8 +1057,11 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1028,8 +1074,11 @@
       <c r="D14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1039,8 +1088,11 @@
       <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1050,8 +1102,11 @@
       <c r="D16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E16" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1064,8 +1119,11 @@
       <c r="D17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1073,7 +1131,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1084,23 +1142,29 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1111,23 +1175,29 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1138,39 +1208,51 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1181,7 +1263,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1191,8 +1273,11 @@
       <c r="D31" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1224,7 +1309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1235,7 +1320,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1287,7 +1372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1298,7 +1383,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1390,7 +1475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1482,7 +1567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1599,6 +1684,11 @@
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/com.bizvisionsoft.pms/问题清单.xlsx
+++ b/com.bizvisionsoft.pms/问题清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sg\git\pms\com.bizvisionsoft.pms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40DD4F8-5819-45D5-9AA9-687F4481ED6E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF51E6F-C537-46F9-B7B4-7F0EDEFD94AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
   </bookViews>
@@ -866,7 +866,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1022,7 +1022,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1031,6 +1031,9 @@
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43285</v>
       </c>
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -1164,7 +1167,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1173,6 +1176,9 @@
       </c>
       <c r="D22" t="s">
         <v>66</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43285</v>
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">

--- a/com.bizvisionsoft.pms/问题清单.xlsx
+++ b/com.bizvisionsoft.pms/问题清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sg\git\pms\com.bizvisionsoft.pms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF51E6F-C537-46F9-B7B4-7F0EDEFD94AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87350079-0560-4AAF-A92B-9ACC0E2642EC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
   <si>
     <t>编制期间预算后，未在预算表中进行显示，只显示了合计，并且总值合计有误。</t>
   </si>
@@ -456,6 +456,18 @@
   </si>
   <si>
     <t>EPS管理无法进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认的报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现添加件和套，待九洲提供详细单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,17 +546,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD94BB01-4479-4B16-BEB0-1EEA83A0444C}" name="表1" displayName="表1" ref="A1:E76" totalsRowShown="0">
-  <autoFilter ref="A1:E76" xr:uid="{585133C4-3030-4533-B9D0-0270D950DFD8}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD94BB01-4479-4B16-BEB0-1EEA83A0444C}" name="表1" displayName="表1" ref="A1:E77" totalsRowShown="0">
+  <autoFilter ref="A1:E77" xr:uid="{585133C4-3030-4533-B9D0-0270D950DFD8}">
     <filterColumn colId="3">
       <filters blank="1">
-        <filter val="改为项目进度计划和监控"/>
-        <filter val="阶段负责人角色编号WM、阶段计划经理PhPM、阶段财务经理PhFM、进入阶段要用程序集中判断当前角色（PM、PPM、PFM、WM、PhPM、PgPM）能否进入阶段。阶段只是编辑计划，其它内容都是在项目中进行查看"/>
-        <filter val="阶段权限"/>
-        <filter val="禁止编辑资源用量"/>
-        <filter val="类似于OBS处理根节点的方式，暂时阶段的一级工作不允许进行编辑"/>
-        <filter val="屏蔽SU的其它操作"/>
-        <filter val="项目模板中要增加项目档案库文件夹结构"/>
         <filter val="需求变更"/>
         <filter val="在我的待处理工作下增加我的待指派工作。"/>
         <filter val="增加表格形式显示所有项目，权限授予项目总监和项目管理员，表格名字：所有项目，创建时间倒序，基本字段参照我的项目，"/>
@@ -862,11 +867,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0812E71-16E9-4313-82F1-F0AF1DA5A6B5}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1258,7 +1263,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1267,6 +1272,9 @@
       </c>
       <c r="D30" t="s">
         <v>76</v>
+      </c>
+      <c r="E30" s="2">
+        <v>43286</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -1283,39 +1291,51 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1326,7 +1346,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1337,7 +1357,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1347,8 +1367,11 @@
       <c r="D38" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1358,8 +1381,11 @@
       <c r="D39" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1369,16 +1395,22 @@
       <c r="D40" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1389,7 +1421,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1400,23 +1432,29 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1427,31 +1465,40 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1462,7 +1509,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1472,16 +1519,22 @@
       <c r="D51" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1492,55 +1545,73 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E54" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1550,8 +1621,11 @@
       <c r="C60" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1561,8 +1635,11 @@
       <c r="C61" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1572,8 +1649,11 @@
       <c r="C62" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E62" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1584,7 +1664,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1594,8 +1674,11 @@
       <c r="C64" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E64" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1605,8 +1688,11 @@
       <c r="C65" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E65" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1616,8 +1702,11 @@
       <c r="C66" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E66" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1627,8 +1716,11 @@
       <c r="C67" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E67" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1638,8 +1730,11 @@
       <c r="C68" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E68" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1649,8 +1744,11 @@
       <c r="C69" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E69" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1660,8 +1758,11 @@
       <c r="C70" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E70" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1671,30 +1772,68 @@
       <c r="C71" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E71" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
       <c r="C72" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E72" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
       <c r="C73" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E73" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
       <c r="C74" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E74" s="2">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
       <c r="C75" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
       <c r="C76" s="1" t="s">
         <v>111</v>
+      </c>
+      <c r="E76" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/com.bizvisionsoft.pms/问题清单.xlsx
+++ b/com.bizvisionsoft.pms/问题清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sg\git\pms\com.bizvisionsoft.pms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87350079-0560-4AAF-A92B-9ACC0E2642EC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D878007-67BF-414C-8642-A129D02DD019}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
   </bookViews>
@@ -547,18 +547,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD94BB01-4479-4B16-BEB0-1EEA83A0444C}" name="表1" displayName="表1" ref="A1:E77" totalsRowShown="0">
-  <autoFilter ref="A1:E77" xr:uid="{585133C4-3030-4533-B9D0-0270D950DFD8}">
-    <filterColumn colId="3">
-      <filters blank="1">
-        <filter val="需求变更"/>
-        <filter val="在我的待处理工作下增加我的待指派工作。"/>
-        <filter val="增加表格形式显示所有项目，权限授予项目总监和项目管理员，表格名字：所有项目，创建时间倒序，基本字段参照我的项目，"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E77" xr:uid="{585133C4-3030-4533-B9D0-0270D950DFD8}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{13C7731C-0A4A-4A68-A1D0-828F5A772311}" name="序号"/>
     <tableColumn id="2" xr3:uid="{48BB547F-43FB-4086-BBFC-91DEDCDE32E2}" name="模块/操作"/>
@@ -871,7 +860,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -898,7 +887,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -925,8 +914,11 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -943,7 +935,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -957,7 +949,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -971,7 +963,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -998,8 +990,11 @@
       <c r="D8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1013,7 +1008,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1027,7 +1022,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1041,7 +1036,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1055,7 +1050,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1069,7 +1064,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1086,7 +1081,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1100,7 +1095,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1114,7 +1109,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1138,8 +1133,11 @@
       <c r="C18" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1150,7 +1148,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1161,7 +1159,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1172,7 +1170,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1186,7 +1184,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1197,7 +1195,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1208,7 +1206,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1219,7 +1217,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1230,7 +1228,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1241,7 +1239,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1252,7 +1250,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1263,7 +1261,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1277,7 +1275,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1291,7 +1289,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1302,7 +1300,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1313,7 +1311,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1324,7 +1322,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1335,7 +1333,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1346,7 +1344,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1357,7 +1355,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1371,7 +1369,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1399,7 +1397,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1410,7 +1408,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1421,7 +1419,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1432,7 +1430,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1443,7 +1441,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1454,7 +1452,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1465,7 +1463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1476,7 +1474,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1487,7 +1485,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1508,8 +1506,11 @@
       <c r="D50" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="2">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1567,7 +1568,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1600,7 +1601,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1611,7 +1612,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1653,7 +1654,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1692,7 +1693,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1776,7 +1777,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1834,6 +1835,9 @@
       </c>
       <c r="C77" s="1" t="s">
         <v>112</v>
+      </c>
+      <c r="E77" s="2">
+        <v>43286</v>
       </c>
     </row>
   </sheetData>

--- a/com.bizvisionsoft.pms/问题清单.xlsx
+++ b/com.bizvisionsoft.pms/问题清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sg\git\pms\com.bizvisionsoft.pms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFCA4CC-CC4D-4805-B565-23A714937E43}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A0D25F1B-7BAE-4F29-8EB2-2D5E5F13AE16}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="1" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="7-3" sheetId="1" r:id="rId1"/>
     <sheet name="7-6" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="152">
   <si>
     <t>编制期间预算后，未在预算表中进行显示，只显示了合计，并且总值合计有误。</t>
   </si>
@@ -480,10 +480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我的项目增加查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>风险分解结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,10 +492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所有项目增加查询条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>企业项目结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,22 +500,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目基本信息，新添加字段显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的项目默认按照计划开始时间排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目-执行状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目-启动状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工作包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,6 +581,42 @@
   </si>
   <si>
     <t>项目变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的项目默认按照计划开始时间排序，改名为我负责和参与的项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目-基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目基本信息，新添加字段显示，为菜单项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加查询，编号、名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加查询，名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加查询，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的项目增加查询，编号、名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有项目增加查询条件，编号、名称、工作令号、助记码（改为项目编号）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,8 +712,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6088D42-47EF-4089-B508-E37083DCED0A}" name="表1_3" displayName="表1_3" ref="A1:E27" totalsRowShown="0">
-  <autoFilter ref="A1:E27" xr:uid="{DDD5EA89-40D1-4FDC-AEAB-3372D27373F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6088D42-47EF-4089-B508-E37083DCED0A}" name="表1_3" displayName="表1_3" ref="A1:E26" totalsRowShown="0">
+  <autoFilter ref="A1:E26" xr:uid="{DDD5EA89-40D1-4FDC-AEAB-3372D27373F6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5397A055-171D-4CCD-BFCB-A6E837444D46}" name="序号"/>
     <tableColumn id="2" xr3:uid="{005412E8-81F9-481C-A42D-AE7E2A8C29D7}" name="模块/操作"/>
@@ -1013,8 +1025,8 @@
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2006,10 +2018,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBACC701-11FA-4699-ABDE-74789CBA47C6}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2037,54 +2049,84 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>48</v>
       </c>
@@ -2093,154 +2135,224 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>116</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="C20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="C25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>147</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/com.bizvisionsoft.pms/问题清单.xlsx
+++ b/com.bizvisionsoft.pms/问题清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sg\git\pms\com.bizvisionsoft.pms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A0D25F1B-7BAE-4F29-8EB2-2D5E5F13AE16}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ACC98F-3E95-4C39-900B-97CEED3F4826}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="1" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="175">
   <si>
     <t>编制期间预算后，未在预算表中进行显示，只显示了合计，并且总值合计有误。</t>
   </si>
@@ -617,6 +617,98 @@
   </si>
   <si>
     <t>所有项目增加查询条件，编号、名称、工作令号、助记码（改为项目编号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作负责人、指派者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从项目组选人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配预算-取消分配后没刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段没有预算项时，提示错误，并且不允许进入预算界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度计划和监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加工作包设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源计划和用量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑不可以设置资源计划和用量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源分配最后一天不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源用量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一资源在一天内不同工作标准工时超过8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少加班+标准的合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入和显示问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目风险应对计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时没有title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段进度计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交时，运行项目进度计划进行检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过阶段开始完成时间也不允许进行提交，未检查阶段节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,8 +804,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6088D42-47EF-4089-B508-E37083DCED0A}" name="表1_3" displayName="表1_3" ref="A1:E26" totalsRowShown="0">
-  <autoFilter ref="A1:E26" xr:uid="{DDD5EA89-40D1-4FDC-AEAB-3372D27373F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6088D42-47EF-4089-B508-E37083DCED0A}" name="表1_3" displayName="表1_3" ref="A1:E39" totalsRowShown="0">
+  <autoFilter ref="A1:E39" xr:uid="{DDD5EA89-40D1-4FDC-AEAB-3372D27373F6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5397A055-171D-4CCD-BFCB-A6E837444D46}" name="序号"/>
     <tableColumn id="2" xr3:uid="{005412E8-81F9-481C-A42D-AE7E2A8C29D7}" name="模块/操作"/>
@@ -2018,10 +2110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBACC701-11FA-4699-ABDE-74789CBA47C6}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2355,6 +2447,138 @@
         <v>118</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/com.bizvisionsoft.pms/问题清单.xlsx
+++ b/com.bizvisionsoft.pms/问题清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sg\git\pms\com.bizvisionsoft.pms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ACC98F-3E95-4C39-900B-97CEED3F4826}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35BF759-1ED6-4019-A093-962961496456}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="1" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
   </bookViews>
@@ -528,10 +528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进度估算操作保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目风险登记簿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,6 +705,10 @@
   </si>
   <si>
     <t>超过阶段开始完成时间也不允许进行提交，未检查阶段节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度估算操作报错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +805,14 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6088D42-47EF-4089-B508-E37083DCED0A}" name="表1_3" displayName="表1_3" ref="A1:E39" totalsRowShown="0">
-  <autoFilter ref="A1:E39" xr:uid="{DDD5EA89-40D1-4FDC-AEAB-3372D27373F6}"/>
+  <autoFilter ref="A1:E39" xr:uid="{DDD5EA89-40D1-4FDC-AEAB-3372D27373F6}">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5397A055-171D-4CCD-BFCB-A6E837444D46}" name="序号"/>
     <tableColumn id="2" xr3:uid="{005412E8-81F9-481C-A42D-AE7E2A8C29D7}" name="模块/操作"/>
@@ -2112,8 +2119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBACC701-11FA-4699-ABDE-74789CBA47C6}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2140,7 +2147,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2151,10 +2158,10 @@
         <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2162,38 +2169,41 @@
         <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2201,18 +2211,24 @@
         <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43287</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2226,7 +2242,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2234,11 +2250,13 @@
         <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2246,11 +2264,13 @@
         <v>116</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2258,10 +2278,13 @@
         <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2272,7 +2295,7 @@
         <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2280,10 +2303,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2308,7 +2331,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2318,8 +2341,11 @@
       <c r="C16" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="2">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2327,190 +2353,202 @@
         <v>128</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="2">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="2">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="2">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2518,10 +2556,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2529,10 +2567,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2540,10 +2578,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2551,10 +2589,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2562,10 +2600,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2573,10 +2611,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/com.bizvisionsoft.pms/问题清单.xlsx
+++ b/com.bizvisionsoft.pms/问题清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sg\git\pms\com.bizvisionsoft.pms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35BF759-1ED6-4019-A093-962961496456}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7401C7-16DE-4CDA-AE27-9DF1A64E2B60}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="1" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
   </bookViews>
@@ -2120,7 +2120,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2241,6 +2241,9 @@
       <c r="C8" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="E8" s="2">
+        <v>43287</v>
+      </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">

--- a/com.bizvisionsoft.pms/问题清单.xlsx
+++ b/com.bizvisionsoft.pms/问题清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sg\git\pms\com.bizvisionsoft.pms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7401C7-16DE-4CDA-AE27-9DF1A64E2B60}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114BB3B6-1001-45BA-B23B-7D1700A9855C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="1" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="196">
   <si>
     <t>编制期间预算后，未在预算表中进行显示，只显示了合计，并且总值合计有误。</t>
   </si>
@@ -592,10 +592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目基本信息，新添加字段显示，为菜单项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加查询，编号、名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -692,10 +688,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建时没有title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阶段进度计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,6 +701,98 @@
   </si>
   <si>
     <t>进度估算操作报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突不针对资源类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加资源类型时，添加数量单位（数量，计算时按照数量合计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示冲突资源名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决冲突时，不同工作录入时间需要控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目进度甘特图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较前判断是否dirty, 如果dirty,提示先保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目进度计划监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需查看工作包进展和文档，并可进行工作包的设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘特图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示工具栏的都需要有时间刻度、关键路径操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源用量分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title信息有误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改名为资源数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目预算成本分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目成本管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认需要权限，由财务经理-功能角色进行确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目基本信息，新添加字段显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑时，没有title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,7 +875,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD94BB01-4479-4B16-BEB0-1EEA83A0444C}" name="表1" displayName="表1" ref="A1:E77" totalsRowShown="0">
-  <autoFilter ref="A1:E77" xr:uid="{585133C4-3030-4533-B9D0-0270D950DFD8}"/>
+  <autoFilter ref="A1:E77" xr:uid="{585133C4-3030-4533-B9D0-0270D950DFD8}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{13C7731C-0A4A-4A68-A1D0-828F5A772311}" name="序号"/>
     <tableColumn id="2" xr3:uid="{48BB547F-43FB-4086-BBFC-91DEDCDE32E2}" name="模块/操作"/>
@@ -804,12 +894,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6088D42-47EF-4089-B508-E37083DCED0A}" name="表1_3" displayName="表1_3" ref="A1:E39" totalsRowShown="0">
-  <autoFilter ref="A1:E39" xr:uid="{DDD5EA89-40D1-4FDC-AEAB-3372D27373F6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6088D42-47EF-4089-B508-E37083DCED0A}" name="表1_3" displayName="表1_3" ref="A1:E49" totalsRowShown="0">
+  <autoFilter ref="A1:E49" xr:uid="{DDD5EA89-40D1-4FDC-AEAB-3372D27373F6}">
     <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
@@ -1125,7 +1212,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1152,7 +1239,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1228,7 +1315,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1402,7 +1489,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1471,7 +1558,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1598,7 +1685,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1609,7 +1696,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1673,7 +1760,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1684,7 +1771,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1706,7 +1793,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1717,7 +1804,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1789,7 +1876,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1800,7 +1887,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1866,7 +1953,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1919,7 +2006,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2075,7 +2162,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2117,10 +2204,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBACC701-11FA-4699-ABDE-74789CBA47C6}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2161,7 +2248,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2169,7 +2256,7 @@
         <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" s="2">
         <v>43287</v>
@@ -2203,7 +2290,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2211,13 +2298,13 @@
         <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="2">
         <v>43287</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2225,7 +2312,7 @@
         <v>133</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" s="2">
         <v>43287</v>
@@ -2242,10 +2329,10 @@
         <v>115</v>
       </c>
       <c r="E8" s="2">
-        <v>43287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2253,13 +2340,13 @@
         <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9" s="2">
         <v>43287</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2273,7 +2360,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2281,7 +2368,7 @@
         <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2">
         <v>43287</v>
@@ -2309,7 +2396,10 @@
         <v>144</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>145</v>
+        <v>194</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43288</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2322,6 +2412,9 @@
       <c r="C14" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="E14" s="2">
+        <v>43288</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -2333,8 +2426,11 @@
       <c r="C15" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2348,7 +2444,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2356,13 +2452,13 @@
         <v>128</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E17" s="2">
         <v>43287</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2404,7 +2500,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2474,7 +2570,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2493,10 +2589,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2504,10 +2600,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>154</v>
+      <c r="E28" s="2">
+        <v>43288</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2515,10 +2614,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>157</v>
+      <c r="E29" s="2">
+        <v>43288</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2526,10 +2628,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>173</v>
+      <c r="E30" s="2">
+        <v>43288</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2537,10 +2642,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>159</v>
+      <c r="E31" s="2">
+        <v>43288</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2548,76 +2656,234 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E32" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="E33" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E35" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/com.bizvisionsoft.pms/问题清单.xlsx
+++ b/com.bizvisionsoft.pms/问题清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sg\git\pms\com.bizvisionsoft.pms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114BB3B6-1001-45BA-B23B-7D1700A9855C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6AA7C4-EA97-49BD-A2BA-AEB0DE28E6ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="1" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="199">
   <si>
     <t>编制期间预算后，未在预算表中进行显示，只显示了合计，并且总值合计有误。</t>
   </si>
@@ -628,10 +628,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进度计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阶段预算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -793,6 +789,22 @@
   </si>
   <si>
     <t>编辑时，没有title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认的报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询条件加类型和报告人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除微信号，标签页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,9 +906,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6088D42-47EF-4089-B508-E37083DCED0A}" name="表1_3" displayName="表1_3" ref="A1:E49" totalsRowShown="0">
-  <autoFilter ref="A1:E49" xr:uid="{DDD5EA89-40D1-4FDC-AEAB-3372D27373F6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6088D42-47EF-4089-B508-E37083DCED0A}" name="表1_3" displayName="表1_3" ref="A1:E51" totalsRowShown="0">
+  <autoFilter ref="A1:E51" xr:uid="{DDD5EA89-40D1-4FDC-AEAB-3372D27373F6}">
     <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
@@ -2204,10 +2219,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBACC701-11FA-4699-ABDE-74789CBA47C6}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2248,7 +2263,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2290,7 +2305,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2304,7 +2319,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2318,7 +2333,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2332,7 +2347,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2346,7 +2361,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2360,7 +2375,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2388,7 +2403,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2396,13 +2411,13 @@
         <v>144</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E13" s="2">
         <v>43288</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2416,7 +2431,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2430,7 +2445,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2444,7 +2459,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2452,13 +2467,13 @@
         <v>128</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E17" s="2">
         <v>43287</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2500,7 +2515,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2570,7 +2585,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2595,7 +2610,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2609,71 +2624,71 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E29" s="2">
         <v>43288</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E30" s="2">
         <v>43288</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="E31" s="2">
         <v>43288</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="E32" s="2">
         <v>43288</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E33" s="2">
         <v>43288</v>
@@ -2684,24 +2699,24 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="D34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="E35" s="2">
         <v>43288</v>
@@ -2712,61 +2727,63 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="E37" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="E38" s="2">
         <v>43288</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="E39" s="2">
         <v>43288</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E40" s="2">
         <v>43288</v>
@@ -2777,113 +2794,135 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E42" s="2">
         <v>43288</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E43" s="2">
         <v>43288</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="E44" s="2">
         <v>43288</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E45" s="2">
         <v>43288</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E46" s="2">
         <v>43288</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E47" s="2">
         <v>43288</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E48" s="2">
         <v>43288</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>192</v>
+    </row>
+    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="2">
+        <v>43288</v>
       </c>
     </row>
   </sheetData>

--- a/com.bizvisionsoft.pms/问题清单.xlsx
+++ b/com.bizvisionsoft.pms/问题清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sg\git\pms\com.bizvisionsoft.pms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6AA7C4-EA97-49BD-A2BA-AEB0DE28E6ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F98DF1-46FC-4F9B-9571-101710B1DBC6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="1" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="204">
   <si>
     <t>编制期间预算后，未在预算表中进行显示，只显示了合计，并且总值合计有误。</t>
   </si>
@@ -805,6 +805,26 @@
   </si>
   <si>
     <t>去除微信号，标签页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度计划检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查有误，项目完成时间检查与管理节点检查分开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目基线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比不知道对比内容那个是那个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑时，没有title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,12 +926,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6088D42-47EF-4089-B508-E37083DCED0A}" name="表1_3" displayName="表1_3" ref="A1:E51" totalsRowShown="0">
-  <autoFilter ref="A1:E51" xr:uid="{DDD5EA89-40D1-4FDC-AEAB-3372D27373F6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6088D42-47EF-4089-B508-E37083DCED0A}" name="表1_3" displayName="表1_3" ref="A1:E54" totalsRowShown="0">
+  <autoFilter ref="A1:E54" xr:uid="{DDD5EA89-40D1-4FDC-AEAB-3372D27373F6}">
     <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
@@ -2219,10 +2236,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBACC701-11FA-4699-ABDE-74789CBA47C6}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2263,7 +2280,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2305,7 +2322,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2319,7 +2336,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2333,7 +2350,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2347,7 +2364,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2361,7 +2378,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2375,7 +2392,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2403,7 +2420,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2417,7 +2434,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2431,7 +2448,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2445,7 +2462,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2459,7 +2476,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2473,7 +2490,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2515,7 +2532,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2585,7 +2602,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2609,8 +2626,11 @@
       <c r="C27" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2624,7 +2644,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2638,7 +2658,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2652,7 +2672,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2666,7 +2686,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2680,7 +2700,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2708,7 +2728,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2732,8 +2752,11 @@
       <c r="C36" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2747,7 +2770,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2761,7 +2784,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2775,7 +2798,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2800,7 +2823,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2814,7 +2837,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2828,7 +2851,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2842,7 +2865,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2856,7 +2879,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2870,7 +2893,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2884,7 +2907,10 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
       <c r="B48" t="s">
         <v>188</v>
       </c>
@@ -2895,15 +2921,24 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
       <c r="B49" t="s">
         <v>190</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
       <c r="B50" t="s">
         <v>195</v>
       </c>
@@ -2914,7 +2949,10 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
       <c r="B51" t="s">
         <v>197</v>
       </c>
@@ -2922,6 +2960,48 @@
         <v>198</v>
       </c>
       <c r="E51" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E54" s="2">
         <v>43288</v>
       </c>
     </row>

--- a/com.bizvisionsoft.pms/问题清单.xlsx
+++ b/com.bizvisionsoft.pms/问题清单.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sg\git\pms\com.bizvisionsoft.pms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F98DF1-46FC-4F9B-9571-101710B1DBC6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECB80BF-5384-48CB-8AEF-0ECD7C5F9A55}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="1" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="2" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
   </bookViews>
   <sheets>
     <sheet name="7-3" sheetId="1" r:id="rId1"/>
     <sheet name="7-6" sheetId="2" r:id="rId2"/>
+    <sheet name="7-8" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="220">
   <si>
     <t>编制期间预算后，未在预算表中进行显示，只显示了合计，并且总值合计有误。</t>
   </si>
@@ -825,6 +826,70 @@
   </si>
   <si>
     <t>编辑时，没有title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理者首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有管理的项目时，项目管理者首页无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划模板缺少时间刻度、关键路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划模板添加工作时，删除里程碑字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划模板保存后，index不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作交付排序不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源需求，添加资源类型时，需要填写数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的待处理工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的待指派工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有开始、完成操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉工作包列、实际开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始、完成放在外面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不允许该里程碑分配角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,7 +950,10 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -917,7 +985,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{13C7731C-0A4A-4A68-A1D0-828F5A772311}" name="序号"/>
     <tableColumn id="2" xr3:uid="{48BB547F-43FB-4086-BBFC-91DEDCDE32E2}" name="模块/操作"/>
-    <tableColumn id="3" xr3:uid="{54694046-8F91-40CB-BFA3-F05EAE8547F1}" name="问题" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{54694046-8F91-40CB-BFA3-F05EAE8547F1}" name="问题" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{A3327696-1949-4863-9092-0CA93A8AF52A}" name="讨论结论"/>
     <tableColumn id="5" xr3:uid="{35EE4844-5954-4D52-96F0-32E575D71CF4}" name="处理日期"/>
   </tableColumns>
@@ -927,17 +995,27 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6088D42-47EF-4089-B508-E37083DCED0A}" name="表1_3" displayName="表1_3" ref="A1:E54" totalsRowShown="0">
-  <autoFilter ref="A1:E54" xr:uid="{DDD5EA89-40D1-4FDC-AEAB-3372D27373F6}">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E54" xr:uid="{DDD5EA89-40D1-4FDC-AEAB-3372D27373F6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5397A055-171D-4CCD-BFCB-A6E837444D46}" name="序号"/>
     <tableColumn id="2" xr3:uid="{005412E8-81F9-481C-A42D-AE7E2A8C29D7}" name="模块/操作"/>
-    <tableColumn id="3" xr3:uid="{FBA004FC-4C68-40D4-A1DA-DC668D060026}" name="问题" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FBA004FC-4C68-40D4-A1DA-DC668D060026}" name="问题" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{382F8D9F-7C63-4247-AB21-BE646D28ABE3}" name="讨论结论"/>
     <tableColumn id="5" xr3:uid="{BAF6D356-C590-4084-B7C0-655403B74E08}" name="处理日期"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C0CE5C66-A96D-47E0-890B-6C6D37C97414}" name="表1_34" displayName="表1_34" ref="A1:E51" totalsRowShown="0">
+  <autoFilter ref="A1:E51" xr:uid="{88D73196-E08F-4577-BE0F-31750BED4F81}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{485D2FA7-626B-4A3F-AB42-2E8830AB2623}" name="序号"/>
+    <tableColumn id="2" xr3:uid="{A8C791B5-14FB-426A-A11B-B6A38C72D1E9}" name="模块/操作"/>
+    <tableColumn id="3" xr3:uid="{F885414B-0DAD-41ED-BB41-A1CDE173C275}" name="问题" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{88DFEEE0-E0A7-46CA-A7DB-9BCA5D869DF3}" name="讨论结论"/>
+    <tableColumn id="5" xr3:uid="{4ADFA55B-4386-417D-AC63-4A49B55011C7}" name="处理日期"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2238,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBACC701-11FA-4699-ABDE-74789CBA47C6}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2266,7 +2344,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2294,7 +2372,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2308,7 +2386,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2406,7 +2484,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2504,7 +2582,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2518,7 +2596,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2546,7 +2624,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2560,7 +2638,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2574,7 +2652,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2588,7 +2666,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2714,7 +2792,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3004,6 +3082,293 @@
       <c r="E54" s="2">
         <v>43288</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6926D7-16B8-4596-96A8-3825B8EE310D}">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="100.625" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+      <c r="E51" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/com.bizvisionsoft.pms/问题清单.xlsx
+++ b/com.bizvisionsoft.pms/问题清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sg\git\pms\com.bizvisionsoft.pms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECB80BF-5384-48CB-8AEF-0ECD7C5F9A55}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8456A789-E343-4521-A358-66670974B906}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="2" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="271">
   <si>
     <t>编制期间预算后，未在预算表中进行显示，只显示了合计，并且总值合计有误。</t>
   </si>
@@ -889,7 +889,233 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不允许该里程碑分配角色</t>
+    <t>不允许给里程碑分配角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给工作指定资源类型，还可以给类型指定具体的资源，由具体的资源平摊用量。（资源类型具体化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能选择项目承担单位下的资源，项目承担单位为多个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建的非自己为负责人的项目，无法编辑进度计划，套用模板后可进行编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client Error
+The application terminated unexpectedly.
+RestartDetails
+Client Error
+Details
+Error: Error: Invalid target for ServerObject, or target not in ObjectManager
+  Stack: getRemoteObject@http://localhost/rwt-resources/340/rap-client.js:64400:13
+getRemoteObject@http://localhost/rwt-resources/340/rap-client.js:63145:14
+_onChangeActiveChild@http://localhost/rwt-resources/340/rap-client.js:51077:28
+_dispatchEvent@http://localhost/rwt-resources/340/rap-client.js:3946:13
+dispatchEvent@http://localhost/rwt-resources/340/rap-client.js:3887:7
+createDispatchChangeEvent@http://localhost/rwt-resources/340/rap-client.js:3860:9
+anonymous@http://localhost/rwt-resources/340/rap-client.js line 2583 &gt; Function:3:616
+_applyFocusedChild@http://localhost/rwt-resources/340/rap-client.js:14096:9
+anonymous@http://localhost/rwt-resources/340/rap-client.js line 2583 &gt; Function:3:627
+_applyFocused@http://localhost/rwt-resources/340/rap-client.js:11633:11
+anonymous@http://localhost/rwt-resources/340/rap-client.js line 2583 &gt; Function:3:599
+_applyActive@http://localhost/rwt-resources/340/rap-client.js:35424:11
+anonymous@http://localhost/rwt-resources/340/rap-client.js line 2583 &gt; Function:3:587
+focus@http://localhost/rwt-resources/340/rap-client.js:35242:7
+_onwindowmousedown@http://localhost/rwt-resources/340/rap-client.js:35943:9
+bind/&lt;@http://localhost/rwt-resources/340/rap-client.js:624:14
+  Debug: on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有项目编号时，工作编号创建错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑预算项后，无法保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建预算项后，删除预算项，报错，无法删除。刷新后可删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑期间预算时，超过项目范围提示不清晰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看项目信息，缺少项目编号和工作令号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑项目编号-修改为可编辑项目所有信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑项目编号-编辑后未刷新项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title显示不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我负责和参与的项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速启动按钮未进行权限控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回项目时，Client Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目计划监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉设置按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入项目主页时，Client Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目各类工作评分，没有边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有选择EPS点击取消时，Client Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我管理的项目各类工作评分，没有边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有阶段团队时，进度计划没办法编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑预算时，报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧边栏样式不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目进度计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段无法选择负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段团队没有人时，启动阶段出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段启动检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有工作包中都可以添加文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑进度计划后，已完成的工作不修改下达状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建状态，预算没办法进行提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成工作工作报告中无法录入资源实际用量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个项目不同的人无法创建报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告摘要报告人被遮住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待处理工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照计划开始时间顺序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查阶段是否全部关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险应对计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加应对计划后，页面刷新，无法添加其它子项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1008,14 +1234,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C0CE5C66-A96D-47E0-890B-6C6D37C97414}" name="表1_34" displayName="表1_34" ref="A1:E51" totalsRowShown="0">
-  <autoFilter ref="A1:E51" xr:uid="{88D73196-E08F-4577-BE0F-31750BED4F81}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C0CE5C66-A96D-47E0-890B-6C6D37C97414}" name="表1_34" displayName="表1_34" ref="A1:F45" totalsRowShown="0">
+  <autoFilter ref="A1:F45" xr:uid="{88D73196-E08F-4577-BE0F-31750BED4F81}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{485D2FA7-626B-4A3F-AB42-2E8830AB2623}" name="序号"/>
     <tableColumn id="2" xr3:uid="{A8C791B5-14FB-426A-A11B-B6A38C72D1E9}" name="模块/操作"/>
     <tableColumn id="3" xr3:uid="{F885414B-0DAD-41ED-BB41-A1CDE173C275}" name="问题" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{88DFEEE0-E0A7-46CA-A7DB-9BCA5D869DF3}" name="讨论结论"/>
     <tableColumn id="5" xr3:uid="{4ADFA55B-4386-417D-AC63-4A49B55011C7}" name="处理日期"/>
+    <tableColumn id="6" xr3:uid="{87E5EA67-7ED3-4187-85B7-19925E09024C}" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3095,21 +3322,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6926D7-16B8-4596-96A8-3825B8EE310D}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="100.625" customWidth="1"/>
-    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -3125,8 +3353,14 @@
       <c r="E1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>204</v>
       </c>
@@ -3134,7 +3368,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>48</v>
       </c>
@@ -3143,7 +3380,10 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>48</v>
       </c>
@@ -3151,7 +3391,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>48</v>
       </c>
@@ -3159,7 +3402,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -3168,7 +3414,10 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
@@ -3177,16 +3426,25 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>216</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="D8" t="s">
+        <v>224</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>218</v>
       </c>
@@ -3195,7 +3453,10 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>211</v>
       </c>
@@ -3204,7 +3465,10 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>212</v>
       </c>
@@ -3213,7 +3477,10 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>212</v>
       </c>
@@ -3222,153 +3489,420 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" t="s">
+        <v>222</v>
+      </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" t="s">
+        <v>222</v>
+      </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43288</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E29" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34" s="2">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>265</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>267</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>269</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-      <c r="E51" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/com.bizvisionsoft.pms/问题清单.xlsx
+++ b/com.bizvisionsoft.pms/问题清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sg\git\pms\com.bizvisionsoft.pms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8456A789-E343-4521-A358-66670974B906}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F644C797-2F34-4CEB-865C-10116F3B17E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="2" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
   </bookViews>
@@ -3324,8 +3324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6926D7-16B8-4596-96A8-3825B8EE310D}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/com.bizvisionsoft.pms/问题清单.xlsx
+++ b/com.bizvisionsoft.pms/问题清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sg\git\pms\com.bizvisionsoft.pms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F644C797-2F34-4CEB-865C-10116F3B17E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D880EF9-5488-4D18-B7E2-5B606034AECA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="2" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="277">
   <si>
     <t>编制期间预算后，未在预算表中进行显示，只显示了合计，并且总值合计有误。</t>
   </si>
@@ -1116,6 +1116,29 @@
   </si>
   <si>
     <t>添加应对计划后，页面刷新，无法添加其它子项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我管理的项目各类工作评分，没有边</t>
+  </si>
+  <si>
+    <t>因为Index不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Gantt的index，如果记录中存在重复的index就会造成排序错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队没有创建。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑预算时，录入期间超过项目时间报错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1235,7 +1258,11 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C0CE5C66-A96D-47E0-890B-6C6D37C97414}" name="表1_34" displayName="表1_34" ref="A1:F45" totalsRowShown="0">
-  <autoFilter ref="A1:F45" xr:uid="{88D73196-E08F-4577-BE0F-31750BED4F81}"/>
+  <autoFilter ref="A1:F45" xr:uid="{88D73196-E08F-4577-BE0F-31750BED4F81}">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{485D2FA7-626B-4A3F-AB42-2E8830AB2623}" name="序号"/>
     <tableColumn id="2" xr3:uid="{A8C791B5-14FB-426A-A11B-B6A38C72D1E9}" name="模块/操作"/>
@@ -3324,8 +3351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6926D7-16B8-4596-96A8-3825B8EE310D}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3357,7 +3384,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3366,6 +3393,12 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>205</v>
+      </c>
+      <c r="D2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43289</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3378,7 +3411,9 @@
       <c r="C3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>43290</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -3390,6 +3425,9 @@
       <c r="C4" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="E4" s="2">
+        <v>43290</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -3401,8 +3439,14 @@
       <c r="C5" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="2">
+        <v>43290</v>
+      </c>
+      <c r="F5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3412,9 +3456,14 @@
       <c r="C6" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3424,9 +3473,12 @@
       <c r="C7" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D7" t="s">
+        <v>274</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3451,7 +3503,9 @@
       <c r="C9" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>43290</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -3463,7 +3517,9 @@
       <c r="C10" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>43290</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -3475,7 +3531,9 @@
       <c r="C11" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>43290</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -3487,9 +3545,11 @@
       <c r="C12" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12" s="2">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3504,7 +3564,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3529,9 +3589,11 @@
       <c r="C15" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="2">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3545,13 +3607,13 @@
         <v>248</v>
       </c>
       <c r="E16" s="2">
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3561,8 +3623,11 @@
       <c r="C17" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="2">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3572,9 +3637,11 @@
       <c r="C18" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="2">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3584,8 +3651,11 @@
       <c r="C19" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="2">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3595,8 +3665,11 @@
       <c r="C20" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="2">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3606,8 +3679,11 @@
       <c r="C21" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="2">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3617,8 +3693,11 @@
       <c r="C22" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="2">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3628,9 +3707,11 @@
       <c r="C23" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="2">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3640,9 +3721,11 @@
       <c r="C24" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="2">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3652,9 +3735,11 @@
       <c r="C25" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="2">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3664,9 +3749,12 @@
       <c r="C26" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="2">
+        <v>43290</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3680,10 +3768,10 @@
         <v>246</v>
       </c>
       <c r="E27" s="2">
-        <v>43288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3693,9 +3781,11 @@
       <c r="C28" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="2">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3709,10 +3799,10 @@
         <v>246</v>
       </c>
       <c r="E29" s="2">
-        <v>43288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3722,9 +3812,12 @@
       <c r="C30" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="D30" t="s">
+        <v>275</v>
+      </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3734,8 +3827,14 @@
       <c r="C31" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>276</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3745,7 +3844,9 @@
       <c r="C32" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>43290</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -3757,7 +3858,9 @@
       <c r="C33" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>43290</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -3770,7 +3873,7 @@
         <v>253</v>
       </c>
       <c r="E34" s="2">
-        <v>43288</v>
+        <v>43289</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -3783,7 +3886,9 @@
       <c r="C35" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2">
+        <v>43290</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -3795,7 +3900,9 @@
       <c r="C36" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2">
+        <v>43290</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -3807,7 +3914,9 @@
       <c r="C37" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2">
+        <v>43290</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -3819,6 +3928,9 @@
       <c r="C38" s="1" t="s">
         <v>259</v>
       </c>
+      <c r="E38" s="2">
+        <v>43290</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -3830,7 +3942,9 @@
       <c r="C39" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2">
+        <v>43290</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -3842,7 +3956,9 @@
       <c r="C40" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2">
+        <v>43290</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -3854,7 +3970,9 @@
       <c r="C41" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2">
+        <v>43290</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -3866,7 +3984,9 @@
       <c r="C42" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2">
+        <v>43290</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -3878,7 +3998,9 @@
       <c r="C43" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2">
+        <v>43290</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -3890,7 +4012,9 @@
       <c r="C44" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2">
+        <v>43290</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -3902,7 +4026,9 @@
       <c r="C45" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2">
+        <v>43290</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/com.bizvisionsoft.pms/问题清单.xlsx
+++ b/com.bizvisionsoft.pms/问题清单.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sg\git\pms\com.bizvisionsoft.pms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D878007-67BF-414C-8642-A129D02DD019}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFCA4CC-CC4D-4805-B565-23A714937E43}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="1" xr2:uid="{9498B579-CCCF-44AF-8D8E-F3E32E38E220}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="7-3" sheetId="1" r:id="rId1"/>
+    <sheet name="7-6" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="149">
   <si>
     <t>编制期间预算后，未在预算表中进行显示，只显示了合计，并且总值合计有误。</t>
   </si>
@@ -468,6 +469,142 @@
   </si>
   <si>
     <t>现添加件和套，待九洲提供详细单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少创建里程碑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的项目增加查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险分解结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备设施基础数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有项目增加查询条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业项目结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认展开2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目基本信息，新添加字段显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的项目默认按照计划开始时间排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目-执行状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目-启动状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作包-研发，文档-添加无法操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页-待处理工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指派无法操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要保存工作报告时的计划时间和实际时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段-执行状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度估算操作保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目风险登记簿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法显示正负面影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审批的项目变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我负责的项目阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日报、周报、月报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目风险量化评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险应对计划（查看）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未显示子项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发进度监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购计划监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成计划监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验进度监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目变更</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +665,10 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -551,9 +691,23 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{13C7731C-0A4A-4A68-A1D0-828F5A772311}" name="序号"/>
     <tableColumn id="2" xr3:uid="{48BB547F-43FB-4086-BBFC-91DEDCDE32E2}" name="模块/操作"/>
-    <tableColumn id="3" xr3:uid="{54694046-8F91-40CB-BFA3-F05EAE8547F1}" name="问题" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{54694046-8F91-40CB-BFA3-F05EAE8547F1}" name="问题" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{A3327696-1949-4863-9092-0CA93A8AF52A}" name="讨论结论"/>
     <tableColumn id="5" xr3:uid="{35EE4844-5954-4D52-96F0-32E575D71CF4}" name="处理日期"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6088D42-47EF-4089-B508-E37083DCED0A}" name="表1_3" displayName="表1_3" ref="A1:E27" totalsRowShown="0">
+  <autoFilter ref="A1:E27" xr:uid="{DDD5EA89-40D1-4FDC-AEAB-3372D27373F6}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5397A055-171D-4CCD-BFCB-A6E837444D46}" name="序号"/>
+    <tableColumn id="2" xr3:uid="{005412E8-81F9-481C-A42D-AE7E2A8C29D7}" name="模块/操作"/>
+    <tableColumn id="3" xr3:uid="{FBA004FC-4C68-40D4-A1DA-DC668D060026}" name="问题" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{382F8D9F-7C63-4247-AB21-BE646D28ABE3}" name="讨论结论"/>
+    <tableColumn id="5" xr3:uid="{BAF6D356-C590-4084-B7C0-655403B74E08}" name="处理日期"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -858,9 +1012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0812E71-16E9-4313-82F1-F0AF1DA5A6B5}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1848,4 +2002,253 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBACC701-11FA-4699-ABDE-74789CBA47C6}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>